--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Other\БНТУ\МИОПТС\Курсовая\polynomial_regression_least_squares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7744B6-5E55-42EA-BE77-2ECB5770A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70106A24-5C7B-4390-A5A9-AF7BEFA8B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{106300DC-BCBA-498E-A6B8-BE89D4BB7CF5}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,58 +410,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
